--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -311,55 +309,57 @@
     <t>广州市声雅音响器材有限公司 声雅维修部</t>
   </si>
   <si>
+    <t>返货单号</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>产品分类</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>条码</t>
+  </si>
+  <si>
+    <t>归还日期</t>
+  </si>
+  <si>
+    <t>更换代用原因</t>
+  </si>
+  <si>
+    <t>其它说明</t>
+  </si>
+  <si>
+    <t>营销总监签名：</t>
+  </si>
+  <si>
+    <t>财务批准:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情况说明（物流部）:    </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <t>020-283461468-803/804</t>
-  </si>
-  <si>
-    <t>返货单号</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>产品分类</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>条码</t>
-  </si>
-  <si>
-    <t>归还日期</t>
-  </si>
-  <si>
-    <t>更换代用原因</t>
-  </si>
-  <si>
-    <t>其它说明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情况说明（物流部）:    </t>
-  </si>
-  <si>
-    <t>营销总监签名：</t>
-  </si>
-  <si>
-    <t>财务批准:</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -367,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +531,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -938,7 +953,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,16 +1009,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1">
@@ -1024,22 +1039,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
@@ -1051,10 +1066,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,9 +1108,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1210,10 +1222,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1222,13 +1234,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,8 +1264,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1556,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1595,361 +1613,361 @@
       <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="102" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="102" t="s">
+      <c r="F3" s="103"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="65"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="65"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="78"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="90" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="76" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="86" t="s">
+      <c r="H9" s="75"/>
+      <c r="I9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="68"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="83" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="78"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="68"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="83" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="61" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="83" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="61" t="s">
+      <c r="H12" s="82"/>
+      <c r="I12" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="78"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="68"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="78"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="69"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="68"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
+      <c r="C16" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="68"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="68"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="68"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" s="69"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="G21" s="75"/>
+      <c r="H21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="K21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="L21" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1960,8 +1978,8 @@
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="31"/>
@@ -1976,8 +1994,8 @@
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -1992,8 +2010,8 @@
       <c r="C24" s="6"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="11"/>
       <c r="I24" s="3"/>
       <c r="J24" s="31"/>
@@ -2008,8 +2026,8 @@
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -2024,8 +2042,8 @@
       <c r="C26" s="6"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
       <c r="J26" s="20"/>
@@ -2040,8 +2058,8 @@
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
@@ -2056,8 +2074,8 @@
       <c r="C28" s="6"/>
       <c r="D28" s="15"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="21"/>
@@ -2072,8 +2090,8 @@
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
@@ -2088,8 +2106,8 @@
       <c r="C30" s="6"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="18"/>
       <c r="I30" s="3"/>
       <c r="J30" s="22"/>
@@ -2104,8 +2122,8 @@
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
@@ -2114,49 +2132,49 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
+        <v>42</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="56"/>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
       <c r="A33" s="37"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
+      <c r="A34" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="46"/>
@@ -2188,7 +2206,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -2196,7 +2214,7 @@
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -2297,30 +2315,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -355,22 +355,21 @@
   </si>
   <si>
     <t xml:space="preserve">情况说明（物流部）:    </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>020-283461468-803/804</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,33 +406,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,24 +413,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -521,12 +475,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MingLiU"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -941,19 +889,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,17 +908,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,83 +923,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,28 +1043,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,40 +1085,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,127 +1127,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 4" xfId="3"/>
-    <cellStyle name="常规_ABK2011年报价" xfId="5"/>
     <cellStyle name="样式 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1574,371 +1433,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:L17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="38" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="39"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="101" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="101" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="104"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="64"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="64"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="77"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="89" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="75" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="85" t="s">
+      <c r="H9" s="38"/>
+      <c r="I9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="67"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="82" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="77"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="82" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="60" t="s">
+      <c r="H11" s="40"/>
+      <c r="I11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="77"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="67"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="82" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="40"/>
+      <c r="I12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="77"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="67"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="77"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="67"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="67"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="67"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="67"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1950,324 +1809,333 @@
       <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="38"/>
+      <c r="H21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>1</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>9</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1">
-      <c r="A31" s="27">
+      <c r="A31" s="9">
         <v>10</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="50"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="60"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="46"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="50"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="60"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="50"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="60"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="50"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="60"/>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="51"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
+  <mergeCells count="48">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A37:F39"/>
+    <mergeCell ref="G37:L39"/>
+    <mergeCell ref="A34:L36"/>
+    <mergeCell ref="B32:L33"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:H9"/>
@@ -2275,43 +2143,24 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A37:F39"/>
-    <mergeCell ref="G37:L39"/>
-    <mergeCell ref="A34:L36"/>
-    <mergeCell ref="B32:L33"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -504,7 +504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -884,6 +884,45 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -900,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,6 +977,186 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,185 +1172,17 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1433,365 +1484,365 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="48" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="72"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="34"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="39"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="74"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="40" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="40" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="30" t="s">
+      <c r="H11" s="55"/>
+      <c r="I11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="40" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="30" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="74"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="75"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="34"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="74"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="74"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="74"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="74"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" s="75"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="77"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
@@ -1809,10 +1860,10 @@
       <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1837,8 +1888,8 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -1853,8 +1904,8 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -1869,8 +1920,8 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -1885,8 +1936,8 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -1901,8 +1952,8 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -1917,8 +1968,8 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -1933,8 +1984,8 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -1949,8 +2000,8 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -1965,8 +2016,8 @@
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -1981,8 +2032,8 @@
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -1990,127 +2041,169 @@
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:12" ht="15" thickBot="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="60"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="60"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="27"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="60"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="60"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="61"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="58">
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:K2"/>
@@ -2127,38 +2220,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -437,8 +437,28 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
       <rPr>
         <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">情况说明（物流部）:    </t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Wingdings 2"/>
@@ -459,27 +479,6 @@
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">情况说明（物流部）:    </t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -490,7 +489,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +693,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1231,7 +1236,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,11 +1363,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,176 +1585,95 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,101 +1696,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1976,7 +1987,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:L33"/>
+      <selection activeCell="C13" sqref="C13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1996,354 +2007,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="44" t="s">
+      <c r="A1" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="92" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="93"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="55" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="55" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="153"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
     </row>
     <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="110"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="110"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="73"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:12" s="30" customFormat="1" ht="6.95" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="78"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="79" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="79" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="70"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="154" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="156"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="113"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="79" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="83"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="113"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="70"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="83"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="114"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="73"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="69" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="113"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="113"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="113"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="113"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="114"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -2361,10 +2372,10 @@
       <c r="E21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="5" t="s">
         <v>28</v>
       </c>
@@ -2389,8 +2400,8 @@
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="39"/>
@@ -2405,8 +2416,8 @@
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
@@ -2421,8 +2432,8 @@
       <c r="C24" s="7"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="17"/>
       <c r="I24" s="4"/>
       <c r="J24" s="39"/>
@@ -2437,8 +2448,8 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
@@ -2453,8 +2464,8 @@
       <c r="C26" s="7"/>
       <c r="D26" s="18"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="20"/>
       <c r="I26" s="4"/>
       <c r="J26" s="26"/>
@@ -2469,8 +2480,8 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
@@ -2485,8 +2496,8 @@
       <c r="C28" s="7"/>
       <c r="D28" s="21"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="27"/>
@@ -2501,8 +2512,8 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
@@ -2517,8 +2528,8 @@
       <c r="C30" s="7"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="24"/>
       <c r="I30" s="4"/>
       <c r="J30" s="28"/>
@@ -2533,8 +2544,8 @@
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -2542,127 +2553,172 @@
       <c r="L31" s="41"/>
     </row>
     <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
     </row>
     <row r="33" spans="1:12" ht="38.1" customHeight="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="107"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="62"/>
     </row>
     <row r="34" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="154" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="101"/>
+      <c r="A34" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="56"/>
     </row>
     <row r="35" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="98"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="52"/>
     </row>
     <row r="36" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="94"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="98"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="52"/>
     </row>
     <row r="37" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="98"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="52"/>
     </row>
     <row r="38" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="98"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="52"/>
     </row>
     <row r="39" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="99"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A37:F39"/>
@@ -2679,51 +2735,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.27500000000000002" right="0.15625" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2753,305 +2764,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
       <c r="M1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="117" t="s">
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="77" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="78"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="126" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="145"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="79" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="83"/>
       <c r="N7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="73"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="130" t="s">
+      <c r="H10" s="80"/>
+      <c r="I10" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="131"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="142"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="79" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="132"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="143"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="79" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="133" t="s">
+      <c r="H12" s="82"/>
+      <c r="I12" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="134"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="139"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="79" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="133" t="s">
+      <c r="H13" s="82"/>
+      <c r="I13" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="134"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="139"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="83"/>
       <c r="N14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="73"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -3060,17 +3071,17 @@
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="77"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="5" t="s">
         <v>28</v>
       </c>
@@ -3081,384 +3092,384 @@
       <c r="K17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="135"/>
+      <c r="M17" s="136"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="119"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="137"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="119"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="137"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="119"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="137"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="119"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="137"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="119"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="119"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="137"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="119"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>9</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="137"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="137"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>11</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="137"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="119"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="137"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="137"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="119"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="137"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="119"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>15</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="137"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="119"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="137"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="119"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="137"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="119"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>18</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="137"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="119"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>19</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="137"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="119"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>20</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="137"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="119"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="142"/>
-      <c r="L38" s="142"/>
-      <c r="M38" s="143"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="125"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="146"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="128"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -3491,20 +3502,20 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="147" t="s">
+      <c r="A42" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="9"/>
@@ -3535,23 +3546,111 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="149" t="s">
+      <c r="A45" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="150"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -3576,94 +3675,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>部门</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>归还日期</t>
-  </si>
-  <si>
-    <t>营销总监签名：</t>
-  </si>
-  <si>
-    <t>财务批准:</t>
   </si>
   <si>
     <t>返货信息</t>
@@ -428,35 +422,6 @@
     <t>总计</t>
   </si>
   <si>
-    <t>部门编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换/代用确认单</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">情况说明（物流部）:    </t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -477,19 +442,37 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销总监签名：</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务批准:</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换/代用确认单</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,15 +545,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -598,14 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,14 +582,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -678,14 +636,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -699,6 +649,22 @@
       <name val="Wingdings 2"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -708,7 +674,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1011,26 +977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1068,11 +1014,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -1082,7 +1030,33 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1095,80 +1069,19 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1178,47 +1091,12 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1229,14 +1107,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,26 +1181,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1339,103 +1208,70 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,6 +1280,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1453,7 +1352,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1462,12 +1421,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1477,118 +1430,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,74 +1541,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1984,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:L13"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2006,737 +1845,648 @@
     <col min="12" max="12" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:12" s="26" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="112" t="s">
+      <c r="A3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="54"/>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="69"/>
+    </row>
+    <row r="7" spans="1:12" s="27" customFormat="1" ht="6.95" customHeight="1">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="77"/>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="77"/>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="77"/>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="77"/>
+      <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="78"/>
+      <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="95"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="83"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
-    </row>
-    <row r="8" spans="1:12" s="30" customFormat="1" ht="6.95" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="83"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="154" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="156"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="83"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="83"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-    </row>
-    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
-        <v>2</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
-        <v>4</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="40"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="40"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
-        <v>6</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
-        <v>8</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="40"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="6">
         <v>9</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="42"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A30" s="31">
+        <v>10</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="142"/>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="35">
-        <v>10</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="41"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-    </row>
-    <row r="33" spans="1:12" ht="38.1" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="62"/>
-    </row>
-    <row r="34" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="56"/>
-    </row>
-    <row r="35" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="52"/>
-    </row>
-    <row r="36" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="52"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A37" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="52"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="52"/>
-    </row>
-    <row r="39" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="53"/>
+    <row r="31" spans="1:12" ht="69" customHeight="1" thickBot="1">
+      <c r="A31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="87"/>
+    </row>
+    <row r="32" spans="1:12" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A32" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90"/>
+    </row>
+    <row r="33" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A33" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
+  <mergeCells count="58">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A8:A13"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C12:L12"/>
     <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A37:F39"/>
-    <mergeCell ref="G37:L39"/>
-    <mergeCell ref="A34:L36"/>
-    <mergeCell ref="B32:L33"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.27500000000000002" right="0.15625" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2764,305 +2514,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="109"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="107"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.95" customHeight="1">
+      <c r="A4" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="11" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="116" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="152" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
+      <c r="N7" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="137" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="144" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.95" customHeight="1">
+      <c r="A9" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="145"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="83"/>
-      <c r="N7" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="120" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="134" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="85"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="135" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="121"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="141" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="122"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="75"/>
+      <c r="I12" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="142"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="137" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="82" t="s">
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="75"/>
+      <c r="I13" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="143"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="137" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="138" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="139"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="137" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="139"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="124"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="83"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
       <c r="N14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
+      <c r="A16" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -3071,17 +2821,17 @@
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="80"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="5" t="s">
         <v>28</v>
       </c>
@@ -3090,386 +2840,386 @@
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="136"/>
+        <v>39</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="125"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="119"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="127"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="119"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="119"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="119"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="119"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="119"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="119"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>9</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="119"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="127"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>11</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="119"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="127"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="127"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="119"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="127"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="119"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="127"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>15</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="119"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="127"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="119"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="127"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="127"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>18</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="119"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="127"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>19</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="119"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="127"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>20</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="119"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="127"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="125"/>
+      <c r="A38" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="133"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="128"/>
+      <c r="A39" s="134" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="136"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -3502,20 +3252,20 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="129" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
+      <c r="A42" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="9"/>
@@ -3546,111 +3296,23 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
+      <c r="A45" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -3675,8 +3337,96 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="0.59027777777777801" bottom="0.59027777777777801" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -453,15 +453,15 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                  </t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>更换/代用确认单</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +674,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1102,6 +1102,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,9 +1140,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,13 +1174,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,65 +1182,173 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,15 +1392,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1311,127 +1429,88 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1454,98 +1533,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1825,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1845,225 +1858,225 @@
     <col min="12" max="12" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="26" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A1" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="36"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="56" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="56" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
       <c r="K6" s="67"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:12" s="27" customFormat="1" ht="6.95" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="6.95" customHeight="1">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="74"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="75" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="75" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="79" t="s">
+      <c r="H10" s="62"/>
+      <c r="I10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="75" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="67"/>
@@ -2075,115 +2088,115 @@
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
-      <c r="L13" s="69"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2195,244 +2208,274 @@
       <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="60"/>
+      <c r="H20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>1</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="34"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
     </row>
     <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>2</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="38"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="140"/>
     </row>
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>3</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="34"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="139"/>
     </row>
     <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>4</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="38"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="140"/>
     </row>
     <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>5</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="34"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="139"/>
     </row>
     <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>6</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="38"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="140"/>
     </row>
     <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>7</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="34"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="139"/>
     </row>
     <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>8</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="38"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="140"/>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>9</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="34"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="139"/>
     </row>
     <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A30" s="31">
+      <c r="A30" s="23">
         <v>10</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="40"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="143"/>
     </row>
     <row r="31" spans="1:12" ht="69" customHeight="1" thickBot="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
     </row>
     <row r="32" spans="1:12" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
+      <c r="A32" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="96"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="F24:G24"/>
@@ -2449,42 +2492,12 @@
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.27500000000000002" right="0.15625" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2514,278 +2527,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="11" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="12"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="107" t="s">
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="107" t="s">
+      <c r="F3" s="131"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="73" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="74"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="116" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="117"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="75" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="66"/>
       <c r="N7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="67"/>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="67"/>
       <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
-      <c r="M8" s="69"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="120" t="s">
+      <c r="H10" s="60"/>
+      <c r="I10" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="124"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="75" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="122"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="125"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="75" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="123" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="124"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="121"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="75" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="123" t="s">
+      <c r="H13" s="62"/>
+      <c r="I13" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="124"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="121"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="66"/>
       <c r="N14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
@@ -2796,23 +2809,23 @@
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
       <c r="L15" s="67"/>
-      <c r="M15" s="69"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -2821,498 +2834,586 @@
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="60"/>
+      <c r="H17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="73" t="s">
+      <c r="L17" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="125"/>
+      <c r="M17" s="118"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>1</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="127"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>3</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>5</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>6</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="101"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>7</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="101"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>8</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="101"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>9</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>10</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="101"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>11</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="127"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="101"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>12</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="127"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="101"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>13</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="127"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="101"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>14</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="127"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="101"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>15</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="127"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="101"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>16</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="127"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="101"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>17</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="127"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="101"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>18</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="127"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="101"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>19</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="127"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="101"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>20</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="127"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="101"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="133"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="107"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="135"/>
-      <c r="K39" s="135"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="136"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="137" t="s">
+      <c r="A42" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="140"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -3337,94 +3438,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>部门</t>
   </si>
@@ -464,6 +464,10 @@
     <t xml:space="preserve">   </t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>公司电话/传真</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +669,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1227,6 +1240,30 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1374,7 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,30 +1571,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1838,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1859,338 +1872,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
     </row>
     <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="86"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
     </row>
     <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="66"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="87"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="71" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="68"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
     </row>
     <row r="7" spans="1:12" s="21" customFormat="1" ht="6.95" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="60" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="62" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="66"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="62" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="62" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="66"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="66"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -2208,10 +2221,10 @@
       <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="4" t="s">
         <v>28</v>
       </c>
@@ -2233,16 +2246,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="29"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="139"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5">
@@ -2252,13 +2265,13 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="140"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5">
@@ -2268,13 +2281,13 @@
       <c r="C23" s="29"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="15"/>
       <c r="I23" s="29"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="139"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="5">
@@ -2284,13 +2297,13 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="140"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="5">
@@ -2298,15 +2311,15 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="141"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="17"/>
       <c r="I25" s="29"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="5">
@@ -2316,13 +2329,13 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="140"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="37"/>
     </row>
     <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="5">
@@ -2330,15 +2343,15 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="142"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="139"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="5">
@@ -2348,13 +2361,13 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="140"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="5">
@@ -2364,13 +2377,13 @@
       <c r="C29" s="29"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="31"/>
       <c r="I29" s="29"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="139"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="23">
@@ -2380,63 +2393,63 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="143"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:12" ht="69" customHeight="1" thickBot="1">
       <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" spans="1:12" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="50"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="58"/>
     </row>
     <row r="33" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -2527,305 +2540,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
       <c r="M1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="129" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="129" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="133"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="141"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="60" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="70"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="126" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="135"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="62" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="66"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="74"/>
       <c r="N7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="71" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="68"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="60" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="123" t="s">
+      <c r="H10" s="68"/>
+      <c r="I10" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="124"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="62" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="125"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="133"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="62" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="120" t="s">
+      <c r="H12" s="70"/>
+      <c r="I12" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="129"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="62" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="120" t="s">
+      <c r="H13" s="70"/>
+      <c r="I13" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="121"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="129"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="66"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="74"/>
       <c r="N14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="68"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -2834,17 +2847,17 @@
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="60"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2855,384 +2868,384 @@
       <c r="K17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="118"/>
+      <c r="M17" s="126"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="5">
         <v>1</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="109"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5">
         <v>2</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="109"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5">
         <v>3</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="109"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="5">
         <v>4</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="109"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5">
         <v>5</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="109"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5">
         <v>6</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="109"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="5">
         <v>7</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="109"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="5">
         <v>8</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="109"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="5">
         <v>9</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="109"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="5">
         <v>10</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="109"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="5">
         <v>11</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="109"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="5">
         <v>12</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="101"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="109"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="5">
         <v>13</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="5">
         <v>14</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="101"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="109"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="5">
         <v>15</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="109"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="5">
         <v>16</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="101"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="109"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="5">
         <v>17</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="109"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="5">
         <v>18</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="101"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="109"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="5">
         <v>19</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="101"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="109"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="5">
         <v>20</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="101"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="109"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="107"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="115"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="110"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="118"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="7"/>
@@ -3265,20 +3278,20 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="8"/>
@@ -3309,20 +3322,20 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="112">

--- a/public/templates/更换代用确认单.xlsx
+++ b/public/templates/更换代用确认单.xlsx
@@ -687,7 +687,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1066,19 +1066,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1140,7 +1127,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,7 +1206,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,20 +1236,188 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1282,187 +1437,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,65 +1551,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1852,7 +1833,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1872,338 +1853,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="20" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="94"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="94"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="74"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="79" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" s="21" customFormat="1" ht="6.95" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="68" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="60"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="70" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="70" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71" t="s">
+      <c r="H10" s="74"/>
+      <c r="I10" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="60"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="70" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="60"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="74"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="71" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
     </row>
     <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="60"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
     </row>
     <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
     </row>
     <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
     </row>
     <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -2221,10 +2202,10 @@
       <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="4" t="s">
         <v>28</v>
       </c>
@@ -2249,13 +2230,13 @@
       <c r="C21" s="33"/>
       <c r="D21" s="34"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="28"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
+      <c r="L21" s="141"/>
     </row>
     <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5">
@@ -2265,13 +2246,13 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="28"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="37"/>
+      <c r="L22" s="141"/>
     </row>
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5">
@@ -2281,13 +2262,13 @@
       <c r="C23" s="29"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="15"/>
       <c r="I23" s="29"/>
       <c r="J23" s="28"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
+      <c r="L23" s="141"/>
     </row>
     <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="5">
@@ -2297,13 +2278,13 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="28"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="37"/>
+      <c r="L24" s="141"/>
     </row>
     <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="5">
@@ -2311,15 +2292,15 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="17"/>
       <c r="I25" s="29"/>
       <c r="J25" s="28"/>
       <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
+      <c r="L25" s="141"/>
     </row>
     <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="5">
@@ -2329,13 +2310,13 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="28"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="37"/>
+      <c r="L26" s="141"/>
     </row>
     <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="5">
@@ -2343,15 +2324,15 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="28"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="L27" s="141"/>
     </row>
     <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="5">
@@ -2361,13 +2342,13 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="28"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="37"/>
+      <c r="L28" s="141"/>
     </row>
     <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="5">
@@ -2377,13 +2358,13 @@
       <c r="C29" s="29"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
       <c r="H29" s="31"/>
       <c r="I29" s="29"/>
       <c r="J29" s="28"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
+      <c r="L29" s="141"/>
     </row>
     <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="23">
@@ -2393,66 +2374,108 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="28"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="40"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="1:12" ht="69" customHeight="1" thickBot="1">
       <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="55"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" spans="1:12" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="58"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
     </row>
     <row r="33" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:L7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:I1"/>
@@ -2469,48 +2492,6 @@
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.27500000000000002" right="0.15625" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2540,305 +2521,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
       <c r="M1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="137" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="137" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="68" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="134" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="135"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="70" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
       <c r="N7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="79" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="68" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="131" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="132"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="70" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="133"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="121"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="70" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="128" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="129"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="123"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="70" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="128" t="s">
+      <c r="H13" s="74"/>
+      <c r="I13" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="129"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="123"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
       <c r="N14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -2847,17 +2828,17 @@
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2868,384 +2849,384 @@
       <c r="K17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="126"/>
+      <c r="M17" s="124"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="5">
         <v>1</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="109"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="126"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="5">
         <v>2</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="109"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5">
         <v>3</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="109"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="5">
         <v>4</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="109"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5">
         <v>5</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="109"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="126"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5">
         <v>6</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="5">
         <v>7</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="109"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="5">
         <v>8</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="5">
         <v>9</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="109"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="126"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="5">
         <v>10</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="109"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="5">
         <v>11</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="5">
         <v>12</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="5">
         <v>13</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="5">
         <v>14</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="109"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="5">
         <v>15</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="5">
         <v>16</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="109"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="5">
         <v>17</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="109"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="126"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="5">
         <v>18</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="109"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="126"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="5">
         <v>19</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="109"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="126"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="5">
         <v>20</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="109"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="126"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="115"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="132"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="118"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="135"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="7"/>
@@ -3278,20 +3259,20 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="119" t="s">
+      <c r="A42" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="8"/>
@@ -3322,111 +3303,23 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="122"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -3451,6 +3344,94 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
